--- a/matlab/logDataProcess/sri-ipb1-41.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-41.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jinwork\BE\matlab\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="37392" windowHeight="11580"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="37395" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>reactor</t>
   </si>
@@ -85,12 +80,18 @@
   </si>
   <si>
     <t>041417</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -688,7 +689,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -721,26 +722,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -773,23 +757,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -966,32 +933,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:R1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="2"/>
+    <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,43 +970,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1048,40 +1019,43 @@
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>7</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>0.9</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>1.56</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>187</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/matlab/logDataProcess/sri-ipb1-41.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-41.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>reactor</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>file</t>
+  </si>
+  <si>
+    <t>IPBx_Qkcal_30v_6000ns_200-350C_He.csv</t>
+  </si>
+  <si>
+    <t>2017-05-12-v189-core-41b-he</t>
+  </si>
+  <si>
+    <t>051517</t>
+  </si>
+  <si>
+    <t>sri-ipb1-6000ns.csv</t>
+  </si>
+  <si>
+    <t>6000ns-30v</t>
   </si>
 </sst>
 </file>
@@ -933,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -944,7 +959,7 @@
     <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1059,6 +1074,56 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="N3" s="2">
+        <v>189</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/logDataProcess/sri-ipb1-41.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-41.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>reactor</t>
   </si>
@@ -67,9 +67,6 @@
     <t>ipb1-40-he-dc-calibration_DKF_calibration_01.mat</t>
   </si>
   <si>
-    <t>he-q</t>
-  </si>
-  <si>
     <t>Initial_Q_and_T_seq_day-01.csv</t>
   </si>
   <si>
@@ -100,7 +97,34 @@
     <t>sri-ipb1-6000ns.csv</t>
   </si>
   <si>
-    <t>6000ns-30v</t>
+    <t>2017-05-17-v189-core-41b-h2</t>
+  </si>
+  <si>
+    <t>051717</t>
+  </si>
+  <si>
+    <t>6000ns-40v_day-01.csv</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>he-6000ns-30v</t>
+  </si>
+  <si>
+    <t>h2-6000ns-40v</t>
+  </si>
+  <si>
+    <t>he-100ns-300v</t>
+  </si>
+  <si>
+    <t>051817</t>
+  </si>
+  <si>
+    <t>100ns-300v_day-01.csv</t>
+  </si>
+  <si>
+    <t>h2-100ns-300v</t>
   </si>
 </sst>
 </file>
@@ -948,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -970,7 +994,7 @@
     <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -985,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1026,19 +1050,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2">
         <v>5</v>
@@ -1071,24 +1095,24 @@
         <v>16</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -1121,7 +1145,107 @@
         <v>16</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="N4" s="2">
+        <v>189</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="N5" s="2">
+        <v>189</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/sri-ipb1-41.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-41.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>reactor</t>
   </si>
@@ -64,9 +64,6 @@
     <t>googleModel</t>
   </si>
   <si>
-    <t>ipb1-40-he-dc-calibration_DKF_calibration_01.mat</t>
-  </si>
-  <si>
     <t>Initial_Q_and_T_seq_day-01.csv</t>
   </si>
   <si>
@@ -125,6 +122,12 @@
   </si>
   <si>
     <t>h2-100ns-300v</t>
+  </si>
+  <si>
+    <t>coreL</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -972,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="P2" sqref="P2:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -989,16 +992,17 @@
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1030,39 +1034,42 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>5</v>
@@ -1080,39 +1087,42 @@
         <v>14</v>
       </c>
       <c r="K2" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L2" s="2">
         <v>0</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>0.9</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>1.56</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>187</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -1130,39 +1140,42 @@
         <v>14</v>
       </c>
       <c r="K3" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>0.9</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>1.56</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>189</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -1177,42 +1190,45 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>0.9</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>1.56</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>189</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
@@ -1227,25 +1243,28 @@
         <v>8.5</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>0.9</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>1.56</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>189</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="P5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/sri-ipb1-41.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-41.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>reactor</t>
   </si>
@@ -79,9 +79,6 @@
     <t>seq</t>
   </si>
   <si>
-    <t>file</t>
-  </si>
-  <si>
     <t>IPBx_Qkcal_30v_6000ns_200-350C_He.csv</t>
   </si>
   <si>
@@ -128,6 +125,33 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>2017-05-23-v189-core-41b-H2</t>
+  </si>
+  <si>
+    <t>6000ns-40v-2-day-01.csv</t>
+  </si>
+  <si>
+    <t>100ns-300-528_day-01.csv</t>
+  </si>
+  <si>
+    <t>052717</t>
+  </si>
+  <si>
+    <t>052817</t>
+  </si>
+  <si>
+    <t>ipb1-h2-100ns-300v-275-350c.csv</t>
+  </si>
+  <si>
+    <t>IPB1_Qkcal_40v_6000ns_275-325_H2.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPB1_Qkcal_40v_6000ns_200-350C_H2.csv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipbx-he-q-200-250-275-300-325-350-400.csv </t>
   </si>
 </sst>
 </file>
@@ -975,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -986,7 +1010,7 @@
     <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1002,7 +1026,7 @@
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1055,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1065,8 +1089,8 @@
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -1102,10 +1126,10 @@
         <v>187</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -1113,16 +1137,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F3" s="2">
         <v>4</v>
@@ -1155,10 +1179,10 @@
         <v>189</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -1166,16 +1190,16 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -1190,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2">
         <v>16.5</v>
@@ -1208,10 +1232,10 @@
         <v>189</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -1219,16 +1243,16 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
@@ -1243,7 +1267,7 @@
         <v>8.5</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2">
         <v>16.5</v>
@@ -1261,10 +1285,116 @@
         <v>189</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>35</v>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="O6" s="2">
+        <v>189</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="O7" s="2">
+        <v>189</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/sri-ipb1-41.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-41.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>reactor</t>
   </si>
@@ -136,12 +136,6 @@
     <t>100ns-300-528_day-01.csv</t>
   </si>
   <si>
-    <t>052717</t>
-  </si>
-  <si>
-    <t>052817</t>
-  </si>
-  <si>
     <t>ipb1-h2-100ns-300v-275-350c.csv</t>
   </si>
   <si>
@@ -152,6 +146,21 @@
   </si>
   <si>
     <t xml:space="preserve">ipbx-he-q-200-250-275-300-325-350-400.csv </t>
+  </si>
+  <si>
+    <t>053017</t>
+  </si>
+  <si>
+    <t>052917</t>
+  </si>
+  <si>
+    <t>6000na-40v-calibarion-529_day-01.csv</t>
+  </si>
+  <si>
+    <t>ipb12-6000ns-40v-calibration.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-googleCalibration</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1090,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -1196,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>27</v>
@@ -1249,7 +1258,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -1299,10 +1308,10 @@
         <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>38</v>
@@ -1352,10 +1361,10 @@
         <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>39</v>
@@ -1395,6 +1404,59 @@
       </c>
       <c r="Q7" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="O8" s="2">
+        <v>189</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/logDataProcess/sri-ipb1-41.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-41.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>reactor</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>6000ns-40v-googleCalibration</t>
+  </si>
+  <si>
+    <t>100ns-300v-new-terminator_day-01.csv</t>
+  </si>
+  <si>
+    <t>060217</t>
+  </si>
+  <si>
+    <t>100ns-300v-1.75-termination-res</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1459,6 +1468,59 @@
         <v>48</v>
       </c>
     </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="O9" s="2">
+        <v>189</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/logDataProcess/sri-ipb1-41.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-41.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>reactor</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>100ns-300v-1.75-termination-res</t>
+  </si>
+  <si>
+    <t>100ns-300v-0602_day-01.csv</t>
+  </si>
+  <si>
+    <t>060317</t>
+  </si>
+  <si>
+    <t>6000ns-40v-new-terminator_day-01.csv</t>
+  </si>
+  <si>
+    <t>6000ns-40v-1.75-termination-res</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1521,6 +1533,112 @@
         <v>51</v>
       </c>
     </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="O10" s="2">
+        <v>189</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="O11" s="2">
+        <v>189</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/logDataProcess/sri-ipb1-41.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-41.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>reactor</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>6000ns-40v-1.75-termination-res</t>
+  </si>
+  <si>
+    <t>6000ns-40v-gcal0604_day-01.csv</t>
+  </si>
+  <si>
+    <t>060517</t>
   </si>
 </sst>
 </file>
@@ -1029,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1639,6 +1645,59 @@
         <v>51</v>
       </c>
     </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="O12" s="2">
+        <v>189</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/logDataProcess/sri-ipb1-41.xlsx
+++ b/matlab/logDataProcess/sri-ipb1-41.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="37395" windowHeight="11580"/>
+    <workbookView xWindow="9690" yWindow="240" windowWidth="24435" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="ipb1-40" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>reactor</t>
   </si>
@@ -169,9 +169,6 @@
     <t>060217</t>
   </si>
   <si>
-    <t>100ns-300v-1.75-termination-res</t>
-  </si>
-  <si>
     <t>100ns-300v-0602_day-01.csv</t>
   </si>
   <si>
@@ -181,13 +178,37 @@
     <t>6000ns-40v-new-terminator_day-01.csv</t>
   </si>
   <si>
-    <t>6000ns-40v-1.75-termination-res</t>
-  </si>
-  <si>
     <t>6000ns-40v-gcal0604_day-01.csv</t>
   </si>
   <si>
     <t>060517</t>
+  </si>
+  <si>
+    <t>IPB1_CoreQPow_vs_PW_8000-80ns_50W_250-275C_H2_day-01.csv</t>
+  </si>
+  <si>
+    <t>IPBx_CoreQPow_vs_PW_8000-80ns_50W_250-275C_H2.csv</t>
+  </si>
+  <si>
+    <t>062717</t>
+  </si>
+  <si>
+    <t>8000ns-100ns</t>
+  </si>
+  <si>
+    <t>100ns-300v-temp-628_day-01.csv</t>
+  </si>
+  <si>
+    <t>062817</t>
+  </si>
+  <si>
+    <t>ipb12-h2-100ns-300v-275-325c.csv</t>
+  </si>
+  <si>
+    <t>100ns-300v</t>
+  </si>
+  <si>
+    <t>6000ns-40v</t>
   </si>
 </sst>
 </file>
@@ -1035,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1536,7 +1557,7 @@
         <v>36</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -1553,7 +1574,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2">
         <v>13</v>
@@ -1589,7 +1610,7 @@
         <v>36</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -1600,10 +1621,10 @@
         <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>49</v>
@@ -1642,7 +1663,7 @@
         <v>36</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1653,13 +1674,13 @@
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2">
         <v>16</v>
@@ -1696,6 +1717,112 @@
       </c>
       <c r="Q12" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="O13" s="2">
+        <v>189</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="O14" s="2">
+        <v>189</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
